--- a/21.cash.flow/01.input/01.filled by control/01.filled by control.xlsx
+++ b/21.cash.flow/01.input/01.filled by control/01.filled by control.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\21.cash.flow\01.input\01.filled by control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/21.cash.flow/01.input/01.filled by control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957259F-F49C-41FC-A1EA-FEB8B8F60E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3957259F-F49C-41FC-A1EA-FEB8B8F60E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BF9E2E-ECB0-49B2-93C6-F7356D88FAEC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="needed" sheetId="2" r:id="rId1"/>
@@ -125,9 +125,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +160,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,9 +178,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,6 +197,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418858D-4220-4ECE-BEF5-D988FB18424D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,6 +507,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
